--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dkk4-Kremen1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dkk4-Kremen1.xlsx
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.02506566666666667</v>
+        <v>0.092262</v>
       </c>
       <c r="H2">
-        <v>0.075197</v>
+        <v>0.276786</v>
       </c>
       <c r="I2">
-        <v>0.359854521092049</v>
+        <v>0.674176843971804</v>
       </c>
       <c r="J2">
-        <v>0.3598545210920489</v>
+        <v>0.6741768439718039</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.428211999999999</v>
+        <v>3.187097666666667</v>
       </c>
       <c r="N2">
-        <v>13.284636</v>
+        <v>9.561293000000001</v>
       </c>
       <c r="O2">
-        <v>0.1639625840090593</v>
+        <v>0.07264827682158614</v>
       </c>
       <c r="P2">
-        <v>0.1840494688652294</v>
+        <v>0.09004258080252311</v>
       </c>
       <c r="Q2">
-        <v>0.1109960859213333</v>
+        <v>0.294048004922</v>
       </c>
       <c r="R2">
-        <v>0.998964773292</v>
+        <v>2.646432044298</v>
       </c>
       <c r="S2">
-        <v>0.05900267714559488</v>
+        <v>0.04897778598756691</v>
       </c>
       <c r="T2">
-        <v>0.06623103347574308</v>
+        <v>0.06070462294852117</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.02506566666666667</v>
+        <v>0.092262</v>
       </c>
       <c r="H3">
-        <v>0.075197</v>
+        <v>0.276786</v>
       </c>
       <c r="I3">
-        <v>0.359854521092049</v>
+        <v>0.674176843971804</v>
       </c>
       <c r="J3">
-        <v>0.3598545210920489</v>
+        <v>0.6741768439718039</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>28.287022</v>
       </c>
       <c r="O3">
-        <v>0.3491261048508298</v>
+        <v>0.2149294457051256</v>
       </c>
       <c r="P3">
-        <v>0.3918971791834611</v>
+        <v>0.2663903788010418</v>
       </c>
       <c r="Q3">
-        <v>0.2363443548148889</v>
+        <v>0.8699390745879999</v>
       </c>
       <c r="R3">
-        <v>2.127099193334</v>
+        <v>7.829451671291999</v>
       </c>
       <c r="S3">
-        <v>0.1256346072618278</v>
+        <v>0.1449004553820908</v>
       </c>
       <c r="T3">
-        <v>0.1410259717323893</v>
+        <v>0.1795942248445397</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.02506566666666667</v>
+        <v>0.092262</v>
       </c>
       <c r="H4">
-        <v>0.075197</v>
+        <v>0.276786</v>
       </c>
       <c r="I4">
-        <v>0.359854521092049</v>
+        <v>0.674176843971804</v>
       </c>
       <c r="J4">
-        <v>0.3598545210920489</v>
+        <v>0.6741768439718039</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.693891333333333</v>
+        <v>2.693222</v>
       </c>
       <c r="N4">
-        <v>5.081674</v>
+        <v>8.079666</v>
       </c>
       <c r="O4">
-        <v>0.06271940007476701</v>
+        <v>0.06139063118282826</v>
       </c>
       <c r="P4">
-        <v>0.0704030882476754</v>
+        <v>0.07608949737890039</v>
       </c>
       <c r="Q4">
-        <v>0.04245851553088888</v>
+        <v>0.248482048164</v>
       </c>
       <c r="R4">
-        <v>0.382126639778</v>
+        <v>2.236338433475999</v>
       </c>
       <c r="S4">
-        <v>0.0225698596770859</v>
+        <v>0.04138814198027618</v>
       </c>
       <c r="T4">
-        <v>0.02533486960476849</v>
+        <v>0.05129777720230791</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.02506566666666667</v>
+        <v>0.092262</v>
       </c>
       <c r="H5">
-        <v>0.075197</v>
+        <v>0.276786</v>
       </c>
       <c r="I5">
-        <v>0.359854521092049</v>
+        <v>0.674176843971804</v>
       </c>
       <c r="J5">
-        <v>0.3598545210920489</v>
+        <v>0.6741768439718039</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.84266</v>
+        <v>25.4243835</v>
       </c>
       <c r="N5">
-        <v>17.68532</v>
+        <v>50.848767</v>
       </c>
       <c r="O5">
-        <v>0.327415530944216</v>
+        <v>0.5795359426364719</v>
       </c>
       <c r="P5">
-        <v>0.2450179103674062</v>
+        <v>0.4788634979919735</v>
       </c>
       <c r="Q5">
-        <v>0.2216471680066667</v>
+        <v>2.345704470477</v>
       </c>
       <c r="R5">
-        <v>1.32988300804</v>
+        <v>14.074226822862</v>
       </c>
       <c r="S5">
-        <v>0.1178219590860298</v>
+        <v>0.3907097127748811</v>
       </c>
       <c r="T5">
-        <v>0.08817080279423754</v>
+        <v>0.3228386817695269</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.02506566666666667</v>
+        <v>0.092262</v>
       </c>
       <c r="H6">
-        <v>0.075197</v>
+        <v>0.276786</v>
       </c>
       <c r="I6">
-        <v>0.359854521092049</v>
+        <v>0.674176843971804</v>
       </c>
       <c r="J6">
-        <v>0.3598545210920489</v>
+        <v>0.6741768439718039</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.613683666666666</v>
+        <v>3.136534000000001</v>
       </c>
       <c r="N6">
-        <v>7.841050999999999</v>
+        <v>9.409602000000001</v>
       </c>
       <c r="O6">
-        <v>0.09677638012112777</v>
+        <v>0.07149570365398808</v>
       </c>
       <c r="P6">
-        <v>0.1086323533362281</v>
+        <v>0.08861404502556121</v>
       </c>
       <c r="Q6">
-        <v>0.06551372356077777</v>
+        <v>0.289382899908</v>
       </c>
       <c r="R6">
-        <v>0.5896235120469999</v>
+        <v>2.604446099172</v>
       </c>
       <c r="S6">
-        <v>0.03482541792151052</v>
+        <v>0.04820074784698906</v>
       </c>
       <c r="T6">
-        <v>0.03909184348491059</v>
+        <v>0.05974153720690818</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.133768</v>
       </c>
       <c r="I7">
-        <v>0.6401454789079511</v>
+        <v>0.3258231560281961</v>
       </c>
       <c r="J7">
-        <v>0.640145478907951</v>
+        <v>0.3258231560281961</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.428211999999999</v>
+        <v>3.187097666666667</v>
       </c>
       <c r="N7">
-        <v>13.284636</v>
+        <v>9.561293000000001</v>
       </c>
       <c r="O7">
-        <v>0.1639625840090593</v>
+        <v>0.07264827682158614</v>
       </c>
       <c r="P7">
-        <v>0.1840494688652294</v>
+        <v>0.09004258080252311</v>
       </c>
       <c r="Q7">
-        <v>0.1974510209386666</v>
+        <v>0.1421105602248889</v>
       </c>
       <c r="R7">
-        <v>1.777059188448</v>
+        <v>1.278995042024</v>
       </c>
       <c r="S7">
-        <v>0.1049599068634644</v>
+        <v>0.02367049083401924</v>
       </c>
       <c r="T7">
-        <v>0.1178184353894863</v>
+        <v>0.02933795785400194</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.133768</v>
       </c>
       <c r="I8">
-        <v>0.6401454789079511</v>
+        <v>0.3258231560281961</v>
       </c>
       <c r="J8">
-        <v>0.640145478907951</v>
+        <v>0.3258231560281961</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>28.287022</v>
       </c>
       <c r="O8">
-        <v>0.3491261048508298</v>
+        <v>0.2149294457051256</v>
       </c>
       <c r="P8">
-        <v>0.3918971791834611</v>
+        <v>0.2663903788010418</v>
       </c>
       <c r="Q8">
         <v>0.4204331509884444</v>
@@ -948,10 +948,10 @@
         <v>3.783898358896</v>
       </c>
       <c r="S8">
-        <v>0.223491497589002</v>
+        <v>0.07002899032303482</v>
       </c>
       <c r="T8">
-        <v>0.2508712074510718</v>
+        <v>0.08679615395650209</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.133768</v>
       </c>
       <c r="I9">
-        <v>0.6401454789079511</v>
+        <v>0.3258231560281961</v>
       </c>
       <c r="J9">
-        <v>0.640145478907951</v>
+        <v>0.3258231560281961</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.693891333333333</v>
+        <v>2.693222</v>
       </c>
       <c r="N9">
-        <v>5.081674</v>
+        <v>8.079666</v>
       </c>
       <c r="O9">
-        <v>0.06271940007476701</v>
+        <v>0.06139063118282826</v>
       </c>
       <c r="P9">
-        <v>0.0704030882476754</v>
+        <v>0.07608949737890039</v>
       </c>
       <c r="Q9">
-        <v>0.07552948529244444</v>
+        <v>0.1200889734986667</v>
       </c>
       <c r="R9">
-        <v>0.6797653676319999</v>
+        <v>1.080800761488</v>
       </c>
       <c r="S9">
-        <v>0.04014954039768111</v>
+        <v>0.02000248920255209</v>
       </c>
       <c r="T9">
-        <v>0.04506821864290691</v>
+        <v>0.02479172017659248</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.133768</v>
       </c>
       <c r="I10">
-        <v>0.6401454789079511</v>
+        <v>0.3258231560281961</v>
       </c>
       <c r="J10">
-        <v>0.640145478907951</v>
+        <v>0.3258231560281961</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.84266</v>
+        <v>25.4243835</v>
       </c>
       <c r="N10">
-        <v>17.68532</v>
+        <v>50.848767</v>
       </c>
       <c r="O10">
-        <v>0.327415530944216</v>
+        <v>0.5795359426364719</v>
       </c>
       <c r="P10">
-        <v>0.2450179103674062</v>
+        <v>0.4788634979919735</v>
       </c>
       <c r="Q10">
-        <v>0.3942883142933334</v>
+        <v>1.133656310676</v>
       </c>
       <c r="R10">
-        <v>2.36572988576</v>
+        <v>6.801937864055999</v>
       </c>
       <c r="S10">
-        <v>0.2095935718581863</v>
+        <v>0.1888262298615909</v>
       </c>
       <c r="T10">
-        <v>0.1568471075731687</v>
+        <v>0.1560248162224465</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.133768</v>
       </c>
       <c r="I11">
-        <v>0.6401454789079511</v>
+        <v>0.3258231560281961</v>
       </c>
       <c r="J11">
-        <v>0.640145478907951</v>
+        <v>0.3258231560281961</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.613683666666666</v>
+        <v>3.136534000000001</v>
       </c>
       <c r="N11">
-        <v>7.841050999999999</v>
+        <v>9.409602000000001</v>
       </c>
       <c r="O11">
-        <v>0.09677638012112777</v>
+        <v>0.07149570365398808</v>
       </c>
       <c r="P11">
-        <v>0.1086323533362281</v>
+        <v>0.08861404502556121</v>
       </c>
       <c r="Q11">
-        <v>0.1165424122408889</v>
+        <v>0.1398559600373334</v>
       </c>
       <c r="R11">
-        <v>1.048881710168</v>
+        <v>1.258703640336</v>
       </c>
       <c r="S11">
-        <v>0.06195096219961726</v>
+        <v>0.02329495580699903</v>
       </c>
       <c r="T11">
-        <v>0.06954050985131746</v>
+        <v>0.02887250781865302</v>
       </c>
     </row>
   </sheetData>
